--- a/Part_2_tables/true_match_on_url_df.xlsx
+++ b/Part_2_tables/true_match_on_url_df.xlsx
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>4134</v>
+        <v>922</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -488,7 +488,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4135</v>
+        <v>1666</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -514,7 +514,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4136</v>
+        <v>1667</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -540,7 +540,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4746</v>
+        <v>4346</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -566,7 +566,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4747</v>
+        <v>6932</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4748</v>
+        <v>6933</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -618,7 +618,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>8991</v>
+        <v>9701</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>

--- a/Part_2_tables/true_match_on_url_df.xlsx
+++ b/Part_2_tables/true_match_on_url_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,16 +462,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>922</v>
+        <v>9530</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10.17239/jowr-2025.16.03.02</t>
+          <t>10.5327/1516-3180.142s1.12066</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.jowr.org/jowr/article/view/1318</t>
+          <t>https://www.apm.org.br/wp-content/uploads/SPMJ_v142Suppl1.pdf</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -488,16 +488,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1666</v>
+        <v>9701</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10.17239/jowr-2025.16.03.02</t>
+          <t>10.5327/1516-3180.142s1.12677</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.jowr.org/jowr/article/view/1318</t>
+          <t>https://www.apm.org.br/wp-content/uploads/SPMJ_v142Suppl1.pdf</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,136 +509,6 @@
         <v>0</v>
       </c>
       <c r="F3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>1667</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>10.17239/jowr-2025.16.03.02</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>https://www.jowr.org/jowr/article/view/1318</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>4346</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>10.22214/ijraset.2024.61751</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>https://www.ijraset.com/best-journal/self-parking-car</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>6932</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>10.22214/ijraset.2024.61751</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>https://www.ijraset.com/best-journal/self-parking-car</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>6933</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>10.22214/ijraset.2024.61751</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>https://www.ijraset.com/best-journal/self-parking-car</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>9701</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>10.5327/1516-3180.142s1.12677</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>https://www.apm.org.br/wp-content/uploads/SPMJ_v142Suppl1.pdf</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" t="b">
         <v>1</v>
       </c>
     </row>
